--- a/DRE/cap11-Informes/IPT_ACRM_INF_InventarioInformes_150505.xlsx
+++ b/DRE/cap11-Informes/IPT_ACRM_INF_InventarioInformes_150505.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Nombre del Informe</t>
   </si>
@@ -41,13 +41,47 @@
     <t>Informe de cumplimiento de previsión de plazos</t>
   </si>
   <si>
-    <t>* Entregas por semana (por equipo); 
-* MW previstos por entregar (por país)
-* MW entregados (por país)</t>
-  </si>
-  <si>
-    <t>* Foreceast mercado (3 años);
-* Forecast Ingeteam (3 años);
+    <t>Ficha que indica, por país, una serie de indicadores del mercado de ese país así como la estrategia comercial a desempeñar ahí</t>
+  </si>
+  <si>
+    <t>KPIs</t>
+  </si>
+  <si>
+    <t>Outputs</t>
+  </si>
+  <si>
+    <t>BDs</t>
+  </si>
+  <si>
+    <t>Lo autoriza Cristina Medrano; proporciona información sobre dos temas: 
+(i) Equipos previstos a entregar por semana 
+(ii) MW previstos por entregar (dato anual) vs MW entregados a fecha del informe (por país)</t>
+  </si>
+  <si>
+    <t>Responsable</t>
+  </si>
+  <si>
+    <t>Cristina Medrano</t>
+  </si>
+  <si>
+    <t>Regional HQ Manager (¿?)</t>
+  </si>
+  <si>
+    <t>Inter-Company Official Price List</t>
+  </si>
+  <si>
+    <t>Presenta una serie de indicadores que sirven de análisis del rendimiento de un comercial</t>
+  </si>
+  <si>
+    <t>* Companies in red (por nivel de importancia) 
+* Porcentaje de empresas en rojo (por nivel de importancia)
+* Total de empresas asignadas (por nivel de importancia)
+* Días desde la última llamada
+* Frecuencia de llamadas impuesta (en días)</t>
+  </si>
+  <si>
+    <t>* Foreceast mercado (3 años)
+* Forecast Ingeteam (3 años)
 * Company priority
 * Competitors
 * Portfolio Weaknesses
@@ -59,36 +93,12 @@
 * action plan</t>
   </si>
   <si>
-    <t>Ficha que indica, por país, una serie de indicadores del mercado de ese país así como la estrategia comercial a desempeñar ahí</t>
-  </si>
-  <si>
-    <t>KPIs</t>
-  </si>
-  <si>
-    <t>Outputs</t>
-  </si>
-  <si>
-    <t>rellena esto después</t>
-  </si>
-  <si>
-    <t>BDs</t>
-  </si>
-  <si>
-    <t>Lo autoriza Cristina Medrano; proporciona información sobre dos temas: 
-(i) Equipos previstos a entregar por semana 
-(ii) MW previstos por entregar (dato anual) vs MW entregados a fecha del informe (por país)</t>
-  </si>
-  <si>
-    <t>Responsable</t>
-  </si>
-  <si>
-    <t>Cristina Medrano</t>
-  </si>
-  <si>
-    <t>Regional HQ Manager (¿?)</t>
-  </si>
-  <si>
-    <t>Inter-Company Official Price List</t>
+    <t>* Entregas por semana (por equipo) 
+* MW previstos por entregar (por país)
+* MW entregados (por país)</t>
+  </si>
+  <si>
+    <t>Listar los diferentes precios establecidos para las transacciones entre filiales de IPT-FV</t>
   </si>
 </sst>
 </file>
@@ -104,16 +114,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -160,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -174,14 +183,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,7 +481,7 @@
   <dimension ref="B2:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,49 +501,51 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="135" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="D3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="2:7" ht="165" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3">
+        <v>5</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8">
         <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -536,29 +553,31 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
       <c r="G5" s="4" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
+      <c r="B7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
